--- a/stats/met/mean_air_t_month.xlsx
+++ b/stats/met/mean_air_t_month.xlsx
@@ -1,103 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/met/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F3D2D33A1DB166A9A2E62D4E5F7A0E0C1ADE316C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E44DB0E-2A1E-9A45-B155-9FD1385FA183}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">Year_month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max_meanT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min_meanT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_maxT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_minT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+  <si>
+    <t>Year_month</t>
+  </si>
+  <si>
+    <t>MeanT</t>
+  </si>
+  <si>
+    <t>MaxT</t>
+  </si>
+  <si>
+    <t>MinT</t>
+  </si>
+  <si>
+    <t>Max_meanT</t>
+  </si>
+  <si>
+    <t>Min_meanT</t>
+  </si>
+  <si>
+    <t>mean_maxT</t>
+  </si>
+  <si>
+    <t>mean_minT</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
+    <t>2020-1</t>
+  </si>
+  <si>
+    <t>2020-2</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>2021-1</t>
+  </si>
+  <si>
+    <t>2021-2</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>2022-1</t>
+  </si>
+  <si>
+    <t>2022-2</t>
+  </si>
+  <si>
+    <t>2022-11</t>
+  </si>
+  <si>
+    <t>2022-12</t>
+  </si>
+  <si>
+    <t>2023-1</t>
+  </si>
+  <si>
+    <t>2023-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,13 +133,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -414,14 +431,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:Q17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="16" max="17" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,521 +475,878 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>-8.93180555555555</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>-8.9318055555555507</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-22.9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.6</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-22.3</v>
       </c>
-      <c r="G2" t="n">
-        <v>-8.26027777777778</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-9.64305555555555</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G2">
+        <v>-8.2602777777777803</v>
+      </c>
+      <c r="H2">
+        <v>-9.6430555555555504</v>
+      </c>
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="K2" s="1">
+        <v>-8.9318055555555507</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>-22.9</v>
+      </c>
+      <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2">
+        <v>-22.3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-8.2602777777777803</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-9.6430555555555504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
-        <v>-3.23870967741936</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>-3.2387096774193598</v>
+      </c>
+      <c r="C3">
         <v>2.9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-13.1</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F3">
         <v>-11.6</v>
       </c>
-      <c r="G3" t="n">
-        <v>-2.66814516129032</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>-2.6681451612903202</v>
+      </c>
+      <c r="H3">
         <v>-3.79825268817204</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="K3" s="1">
+        <v>-3.2387096774193598</v>
+      </c>
+      <c r="L3">
+        <v>2.9</v>
+      </c>
+      <c r="M3">
+        <v>-13.1</v>
+      </c>
+      <c r="N3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O3">
+        <v>-11.6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-2.6681451612903202</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-3.79825268817204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
-        <v>-4.89274193548387</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>-4.8927419354838699</v>
+      </c>
+      <c r="C4">
         <v>3.2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-12.7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2.4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-12.6</v>
       </c>
-      <c r="G4" t="n">
-        <v>-4.35362903225807</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-5.41868279569893</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G4">
+        <v>-4.3536290322580697</v>
+      </c>
+      <c r="H4">
+        <v>-5.4186827956989303</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="K4" s="1">
+        <v>-4.8927419354838699</v>
+      </c>
+      <c r="L4">
+        <v>3.2</v>
+      </c>
+      <c r="M4">
+        <v>-12.7</v>
+      </c>
+      <c r="N4">
+        <v>2.4</v>
+      </c>
+      <c r="O4">
+        <v>-12.6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-4.3536290322580697</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-5.4186827956989303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-7.33174846625767</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D5">
         <v>-20.9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-18.8</v>
       </c>
-      <c r="G5" t="n">
-        <v>-6.73466257668712</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-7.94463190184049</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="G5">
+        <v>-6.7346625766871204</v>
+      </c>
+      <c r="H5">
+        <v>-7.9446319018404896</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="K5" s="1">
+        <v>-7.33174846625767</v>
+      </c>
+      <c r="L5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M5">
+        <v>-20.9</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>-18.8</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-6.7346625766871204</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-7.9446319018404896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="n">
-        <v>-10.9838214783821</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6">
+        <v>-10.983821478382101</v>
+      </c>
+      <c r="C6">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D6">
         <v>-28.2</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-1.6</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-26.1</v>
       </c>
-      <c r="G6" t="n">
-        <v>-10.2716875871688</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>-10.271687587168801</v>
+      </c>
+      <c r="H6">
         <v>-11.702510460251</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="K6" s="1">
+        <v>-10.983821478382101</v>
+      </c>
+      <c r="L6">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="M6">
+        <v>-28.2</v>
+      </c>
+      <c r="N6">
+        <v>-1.6</v>
+      </c>
+      <c r="O6">
+        <v>-26.1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-10.271687587168801</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-11.702510460251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="n">
-        <v>-3.42701612903226</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>-3.4270161290322601</v>
+      </c>
+      <c r="C7">
         <v>4.25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-15.8</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3.4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-14.7</v>
       </c>
-      <c r="G7" t="n">
-        <v>-2.7002688172043</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-4.1307123655914</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="G7">
+        <v>-2.7002688172043001</v>
+      </c>
+      <c r="H7">
+        <v>-4.1307123655913998</v>
+      </c>
+      <c r="I7">
         <v>12</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="K7" s="1">
+        <v>-3.4270161290322601</v>
+      </c>
+      <c r="L7">
+        <v>4.25</v>
+      </c>
+      <c r="M7">
+        <v>-15.8</v>
+      </c>
+      <c r="N7">
+        <v>3.4</v>
+      </c>
+      <c r="O7">
+        <v>-14.7</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-2.7002688172043001</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-4.1307123655913998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>-3.26969086021505</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>-3.2696908602150501</v>
+      </c>
+      <c r="C8">
         <v>3.75</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-11.55</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>3.1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-11.05</v>
       </c>
-      <c r="G8" t="n">
-        <v>-2.59213709677419</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-3.9497311827957</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="G8">
+        <v>-2.5921370967741901</v>
+      </c>
+      <c r="H8">
+        <v>-3.9497311827956998</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="K8" s="1">
+        <v>-3.2696908602150501</v>
+      </c>
+      <c r="L8">
+        <v>3.75</v>
+      </c>
+      <c r="M8">
+        <v>-11.55</v>
+      </c>
+      <c r="N8">
+        <v>3.1</v>
+      </c>
+      <c r="O8">
+        <v>-11.05</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-2.5921370967741901</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-3.9497311827956998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-10.5275297619048</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>-0.1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-23.95</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-0.7</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-20.45</v>
       </c>
-      <c r="G9" t="n">
-        <v>-9.85386904761905</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>-9.8538690476190496</v>
+      </c>
+      <c r="H9">
         <v>-11.2483630952381</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="K9" s="1">
+        <v>-10.5275297619048</v>
+      </c>
+      <c r="L9">
+        <v>-0.1</v>
+      </c>
+      <c r="M9">
+        <v>-23.95</v>
+      </c>
+      <c r="N9">
+        <v>-0.7</v>
+      </c>
+      <c r="O9">
+        <v>-20.45</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-9.8538690476190496</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-11.2483630952381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="n">
-        <v>-9.32597222222223</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>-9.3259722222222301</v>
+      </c>
+      <c r="C10">
         <v>-1.5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-24.25</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-1.8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-23.5</v>
       </c>
-      <c r="G10" t="n">
-        <v>-8.62111111111111</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>-8.6211111111111105</v>
+      </c>
+      <c r="H10">
         <v>-10.0392361111111</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>11</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="K10" s="1">
+        <v>-9.3259722222222301</v>
+      </c>
+      <c r="L10">
+        <v>-1.5</v>
+      </c>
+      <c r="M10">
+        <v>-24.25</v>
+      </c>
+      <c r="N10">
+        <v>-1.8</v>
+      </c>
+      <c r="O10">
+        <v>-23.5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-8.6211111111111105</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-10.0392361111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-2.41720430107527</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4.55</v>
       </c>
-      <c r="D11" t="n">
-        <v>-9.55</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>-9.5500000000000007</v>
+      </c>
+      <c r="E11">
         <v>3.9</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-9.25</v>
       </c>
-      <c r="G11" t="n">
-        <v>-1.78165322580645</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-3.01659946236559</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="G11">
+        <v>-1.7816532258064499</v>
+      </c>
+      <c r="H11">
+        <v>-3.0165994623655901</v>
+      </c>
+      <c r="I11">
         <v>12</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="K11" s="1">
+        <v>-2.41720430107527</v>
+      </c>
+      <c r="L11">
+        <v>4.55</v>
+      </c>
+      <c r="M11">
+        <v>-9.5500000000000007</v>
+      </c>
+      <c r="N11">
+        <v>3.9</v>
+      </c>
+      <c r="O11">
+        <v>-9.25</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-1.7816532258064499</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-3.0165994623655901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="n">
-        <v>-4.47681451612903</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12">
+        <v>-4.4768145161290303</v>
+      </c>
+      <c r="C12">
         <v>3.1</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-14.85</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>2.9</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-13.15</v>
       </c>
-      <c r="G12" t="n">
-        <v>-3.80786290322581</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-5.12694892473118</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="G12">
+        <v>-3.8078629032258098</v>
+      </c>
+      <c r="H12">
+        <v>-5.1269489247311801</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="K12" s="1">
+        <v>-4.4768145161290303</v>
+      </c>
+      <c r="L12">
+        <v>3.1</v>
+      </c>
+      <c r="M12">
+        <v>-14.85</v>
+      </c>
+      <c r="N12">
+        <v>2.9</v>
+      </c>
+      <c r="O12">
+        <v>-13.15</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-3.8078629032258098</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-5.1269489247311801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="n">
-        <v>-8.72440476190476</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="B13">
+        <v>-8.7244047619047596</v>
+      </c>
+      <c r="C13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D13">
         <v>-22.3</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>2.25</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-21.1</v>
       </c>
-      <c r="G13" t="n">
-        <v>-8.14419642857143</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-9.34694940476191</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="G13">
+        <v>-8.1441964285714299</v>
+      </c>
+      <c r="H13">
+        <v>-9.3469494047619097</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="K13" s="1">
+        <v>-8.7244047619047596</v>
+      </c>
+      <c r="L13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M13">
+        <v>-22.3</v>
+      </c>
+      <c r="N13">
+        <v>2.25</v>
+      </c>
+      <c r="O13">
+        <v>-21.1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-8.1441964285714299</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-9.3469494047619097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="n">
-        <v>-13.9520833333333</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14">
+        <v>-13.952083333333301</v>
+      </c>
+      <c r="C14">
         <v>-0.85</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-28.9</v>
       </c>
-      <c r="E14" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="F14">
         <v>-28</v>
       </c>
-      <c r="G14" t="n">
-        <v>-13.2094444444444</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>-13.209444444444401</v>
+      </c>
+      <c r="H14">
         <v>-14.7300694444444</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>11</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="K14" s="1">
+        <v>-13.952083333333301</v>
+      </c>
+      <c r="L14">
+        <v>-0.85</v>
+      </c>
+      <c r="M14">
+        <v>-28.9</v>
+      </c>
+      <c r="N14">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="O14">
+        <v>-28</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-13.209444444444401</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-14.7300694444444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-3.5557123655914</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>6.45</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-12.6</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>5.5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-12</v>
       </c>
-      <c r="G15" t="n">
-        <v>-3.00423387096774</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-4.07197580645161</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="G15">
+        <v>-3.0042338709677399</v>
+      </c>
+      <c r="H15">
+        <v>-4.0719758064516096</v>
+      </c>
+      <c r="I15">
         <v>12</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>2022</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="K15" s="1">
+        <v>-3.5557123655914</v>
+      </c>
+      <c r="L15">
+        <v>6.45</v>
+      </c>
+      <c r="M15">
+        <v>-12.6</v>
+      </c>
+      <c r="N15">
+        <v>5.5</v>
+      </c>
+      <c r="O15">
+        <v>-12</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-3.0042338709677399</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-4.0719758064516096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="n">
-        <v>-4.6130376344086</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16">
+        <v>-4.6130376344085997</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-13.1</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.25</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-12.25</v>
       </c>
-      <c r="G16" t="n">
-        <v>-3.99858870967742</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-5.19744623655914</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="G16">
+        <v>-3.9985887096774202</v>
+      </c>
+      <c r="H16">
+        <v>-5.1974462365591396</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>2023</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="K16" s="1">
+        <v>-4.6130376344085997</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>-13.1</v>
+      </c>
+      <c r="N16">
+        <v>0.25</v>
+      </c>
+      <c r="O16">
+        <v>-12.25</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-3.9985887096774202</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-5.1974462365591396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="n">
-        <v>-9.37574404761905</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17">
+        <v>-9.3757440476190492</v>
+      </c>
+      <c r="C17">
         <v>-0.3</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-25.4</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-0.8</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-23.8</v>
       </c>
-      <c r="G17" t="n">
-        <v>-8.66369047619048</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-10.1571428571429</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="G17">
+        <v>-8.6636904761904798</v>
+      </c>
+      <c r="H17">
+        <v>-10.157142857142899</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>2023</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-9.3757440476190492</v>
+      </c>
+      <c r="L17">
+        <v>-0.3</v>
+      </c>
+      <c r="M17">
+        <v>-25.4</v>
+      </c>
+      <c r="N17">
+        <v>-0.8</v>
+      </c>
+      <c r="O17">
+        <v>-23.8</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-8.6636904761904798</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-10.157142857142899</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>